--- a/testCases/user.xlsx
+++ b/testCases/user.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4B2C72-B5C1-41DB-9091-A647FAE337EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D587B6B0-25A2-40C7-8E39-5C22AF394A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayan-card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayan-withdraw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +461,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -524,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>123456</v>
@@ -541,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>123456</v>
